--- a/InterviewTest/output/230446/230446_failed.xlsx
+++ b/InterviewTest/output/230446/230446_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230446\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EDEE4B-1499-4A3B-9F55-8F4413ADAE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618129F7-76A5-4CC6-8A79-1CB6F4753CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230446/230446_failed.xlsx
+++ b/InterviewTest/output/230446/230446_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230446\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230446\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618129F7-76A5-4CC6-8A79-1CB6F4753CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF4EC4-45FA-492C-9F3A-50B2B875D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="31920" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230446/230446_failed.xlsx
+++ b/InterviewTest/output/230446/230446_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230446\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230446\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF4EC4-45FA-492C-9F3A-50B2B875D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB77C02-B29F-42AD-BD45-D943868D2305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
